--- a/Data/活动邀请好友.xlsx
+++ b/Data/活动邀请好友.xlsx
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>url（注册网址）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_phone（手机号码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db（test测试环境31，pre准生产）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_pwd（用户注册的密码）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -37,21 +25,6 @@
   </si>
   <si>
     <t>http://192.168.10.31:8081/userCenter/register.html</t>
-  </si>
-  <si>
-    <t>18200000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1234567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a1234568</t>
   </si>
 </sst>
 </file>
@@ -432,7 +405,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,94 +420,71 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
